--- a/Templates/TmpX3.xlsx
+++ b/Templates/TmpX3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sega\Amgstrem_2\New\RAD_Projects\Magic2\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106C02B0-97E4-44C8-B37D-19D962A5CFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60ABC1D-1826-4FDF-B1A7-5E2C10F21A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1020" windowWidth="27345" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29640" yWindow="405" windowWidth="27345" windowHeight="14295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Пластина" sheetId="4" r:id="rId1"/>
@@ -345,9 +345,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -355,6 +352,8 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -382,8 +381,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1584,7 +1584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:N5368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1612,7 +1612,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+      <c r="A4" s="37">
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1631,45 +1631,45 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="30" t="s">
+    <row r="5" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="30" t="s">
+    <row r="6" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="5"/>
@@ -1686,7 +1686,7 @@
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1704,7 +1704,7 @@
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1722,7 +1722,7 @@
       <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1740,7 +1740,7 @@
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1758,7 +1758,7 @@
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1776,7 +1776,7 @@
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -1785,56 +1785,56 @@
       <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="28" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="19" t="s">
         <v>9</v>
       </c>
@@ -1848,7 +1848,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -1857,14 +1857,14 @@
       <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="16" t="s">
         <v>15</v>
       </c>
@@ -7229,23 +7229,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:H1957"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.7109375" style="27" customWidth="1"/>
+    <col min="1" max="2" width="3.7109375" style="26" customWidth="1"/>
     <col min="3" max="188" width="3.7109375" style="24" customWidth="1"/>
     <col min="189" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26"/>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="25"/>

--- a/Templates/TmpX3.xlsx
+++ b/Templates/TmpX3.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sega\Amgstrem_2\New\RAD_Projects\Magic2\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60ABC1D-1826-4FDF-B1A7-5E2C10F21A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D5959B-C58A-4D70-918B-96E0CFC052BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29640" yWindow="405" windowWidth="27345" windowHeight="14295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="405" windowWidth="28080" windowHeight="14295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Пластина" sheetId="4" r:id="rId1"/>
     <sheet name="Всего" sheetId="28" r:id="rId2"/>
     <sheet name="Карты обхода" sheetId="29" r:id="rId3"/>
+    <sheet name="Нормы и режимы" sheetId="30" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>N</t>
   </si>
@@ -85,6 +86,18 @@
   </si>
   <si>
     <t>3-й кварт.</t>
+  </si>
+  <si>
+    <t>Режим</t>
+  </si>
+  <si>
+    <t>Мин. норма</t>
+  </si>
+  <si>
+    <t>Ед. измерения</t>
+  </si>
+  <si>
+    <t>Мах. норма</t>
   </si>
 </sst>
 </file>
@@ -314,7 +327,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -354,6 +367,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -379,9 +408,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1299,7 +1325,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1638,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
+      <c r="A4" s="43">
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1632,7 +1658,7 @@
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="29" t="s">
         <v>19</v>
       </c>
@@ -1650,7 +1676,7 @@
       <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="29" t="s">
         <v>18</v>
       </c>
@@ -1668,7 +1694,7 @@
       <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="29" t="s">
         <v>20</v>
       </c>
@@ -1686,7 +1712,7 @@
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1704,7 +1730,7 @@
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1722,7 +1748,7 @@
       <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1740,7 +1766,7 @@
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1758,7 +1784,7 @@
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1776,7 +1802,7 @@
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -1785,56 +1811,56 @@
       <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="19" t="s">
         <v>9</v>
       </c>
@@ -1848,7 +1874,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="39" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -1857,14 +1883,14 @@
       <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="16" t="s">
         <v>15</v>
       </c>
@@ -7229,7 +7255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:H1957"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7239,13 +7265,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="25"/>
@@ -9228,4 +9254,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DCE651-8A1E-4A28-A923-2FFC850A4C58}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" style="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37"/>
+    </row>
+    <row r="2" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+    </row>
+    <row r="6" spans="1:1" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Templates/TmpX3.xlsx
+++ b/Templates/TmpX3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sega\Amgstrem_2\New\RAD_Projects\Magic2\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0901F1-6F29-4120-831B-199DE31291D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2466640-6BCB-491A-B340-19098CC2A66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="405" windowWidth="28080" windowHeight="14295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="1515" windowWidth="28080" windowHeight="14295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Пластина" sheetId="4" r:id="rId1"/>
@@ -107,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +139,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -327,7 +336,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -385,8 +394,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -412,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1615,7 +1627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:N5368"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1643,7 +1655,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
+      <c r="A4" s="45">
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1663,7 +1675,7 @@
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="29" t="s">
         <v>19</v>
       </c>
@@ -1681,7 +1693,7 @@
       <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="29" t="s">
         <v>18</v>
       </c>
@@ -1699,7 +1711,7 @@
       <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="29" t="s">
         <v>20</v>
       </c>
@@ -1717,7 +1729,7 @@
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1735,7 +1747,7 @@
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1753,7 +1765,7 @@
       <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1771,7 +1783,7 @@
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1789,7 +1801,7 @@
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1807,7 +1819,7 @@
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -1816,56 +1828,56 @@
       <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="19" t="s">
         <v>9</v>
       </c>
@@ -1879,7 +1891,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -1888,14 +1900,14 @@
       <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="16" t="s">
         <v>15</v>
       </c>
@@ -7269,14 +7281,14 @@
     <col min="189" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="38" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="40" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39"/>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="25"/>
@@ -9265,9 +9277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DCE651-8A1E-4A28-A923-2FFC850A4C58}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Templates/TmpX3.xlsx
+++ b/Templates/TmpX3.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sega\Delphi\RAD_Projects\Magic2\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D23CDAF-B3A4-4948-B9FA-E7ED7801F85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E67248-D243-40A6-B0CA-03136B09E1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="29544" windowHeight="15264" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31524" yWindow="636" windowWidth="29544" windowHeight="15264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Пластина" sheetId="4" r:id="rId1"/>
     <sheet name="Всего" sheetId="28" r:id="rId2"/>
     <sheet name="Карты обхода" sheetId="29" r:id="rId3"/>
     <sheet name="Нормы и режимы" sheetId="30" r:id="rId4"/>
-    <sheet name="Гистограммы" sheetId="31" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -108,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,22 +149,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -353,7 +336,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -417,11 +400,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -448,10 +426,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -797,6 +771,147 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Пластина!$P$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Пластина!$O$49:$O$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Пластина!$P$49:$P$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-913A-41EB-864A-7BE205583829}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="10"/>
+        <c:axId val="105249408"/>
+        <c:axId val="105267968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="105249408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105267968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="105267968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105249408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -970,7 +1085,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -996,7 +1111,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Гистограммы!$Q$1</c:f>
+              <c:f>Всего!$N$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1026,25 +1141,25 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Гистограммы!$P$2:$P$31</c:f>
+              <c:f>Всего!$M$57:$M$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="22"/>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Гистограммы!$Q$2:$Q$31</c:f>
+              <c:f>Всего!$N$57:$N$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="22"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-595F-4601-BD4E-4035A69B7737}"/>
+              <c16:uniqueId val="{00000000-14AD-4F77-B59D-F88E6920B93F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1124,7 +1239,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1146,6 +1261,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07997AC-5F51-4DE4-BFC7-8533EE1CE2F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1192,30 +1345,25 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>194310</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
+        <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{533047CC-8D74-4A92-866F-E0D589A6B311}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A0284A-7380-42B1-8E95-D85DC8C79A42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1229,7 +1377,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1575,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1850,6 +1998,7 @@
     <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1864,7 +2013,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N5368"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="S65" sqref="S65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1892,7 +2043,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48">
+      <c r="A4" s="45">
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1912,7 +2063,7 @@
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="28" t="s">
         <v>18</v>
       </c>
@@ -1930,7 +2081,7 @@
       <c r="N5" s="30"/>
     </row>
     <row r="6" spans="1:14" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="28" t="s">
         <v>17</v>
       </c>
@@ -1948,7 +2099,7 @@
       <c r="N6" s="30"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="28" t="s">
         <v>19</v>
       </c>
@@ -1966,7 +2117,7 @@
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1984,7 +2135,7 @@
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -2002,7 +2153,7 @@
       <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -2020,7 +2171,7 @@
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2038,7 +2189,7 @@
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="51"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2056,7 +2207,7 @@
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -2065,56 +2216,56 @@
       <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="27"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="27"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="47"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="19" t="s">
         <v>9</v>
       </c>
@@ -2128,7 +2279,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -2137,14 +2288,14 @@
       <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="16" t="s">
         <v>15</v>
       </c>
@@ -7520,12 +7671,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="39" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38"/>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="25"/>
@@ -9551,32 +9702,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BADD903-D626-4CAF-BD51-4ECE68A42327}">
-  <dimension ref="A1:EA31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="8.88671875" style="41" customWidth="1"/>
-    <col min="3" max="14" width="8.88671875" style="41"/>
-    <col min="16" max="131" width="8.88671875" style="53"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="42"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Templates/TmpX3.xlsx
+++ b/Templates/TmpX3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sega\Delphi\RAD_Projects\Magic2\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E67248-D243-40A6-B0CA-03136B09E1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B955D962-E113-4EFF-BE87-B843FB8ABD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31524" yWindow="636" windowWidth="29544" windowHeight="15264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31524" yWindow="636" windowWidth="29544" windowHeight="15264" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Пластина" sheetId="4" r:id="rId1"/>
@@ -1085,147 +1085,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Всего!$N$56</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Всего!$M$57:$M$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Всего!$N$57:$N$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-14AD-4F77-B59D-F88E6920B93F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="10"/>
-        <c:axId val="105249408"/>
-        <c:axId val="105267968"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="105249408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105267968"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="105267968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105249408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1340,44 +1199,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A0284A-7380-42B1-8E95-D85DC8C79A42}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1725,7 +1546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -2013,9 +1834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N5368"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="S65" sqref="S65"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
